--- a/biology/Zoologie/Gongylosoma_baliodeirus/Gongylosoma_baliodeirus.xlsx
+++ b/biology/Zoologie/Gongylosoma_baliodeirus/Gongylosoma_baliodeirus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Gongylosoma baliodeirus est une espèce de serpents de la famille des Colubridae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gongylosoma baliodeirus est une espèce de serpents de la famille des Colubridae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre en Malaisie, à Singapour, au Brunei et en Indonésie à Java, à Sumatra, à Nias, à Weh, au Kalimantan, dans les  îles Natuna et l'archipel Riau[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre en Malaisie, à Singapour, au Brunei et en Indonésie à Java, à Sumatra, à Nias, à Weh, au Kalimantan, dans les  îles Natuna et l'archipel Riau.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (12 mars 2012)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (12 mars 2012) :
 Gongylosoma baliodeirus baliodeirus (Boie, 1827)
 Gongylosoma baliodeirus cochranae (Taylor, 1962)</t>
         </is>
@@ -574,7 +590,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Boie, 1827 : Bemerkungen über Merrem's Versuch eines Systems der Amphibien, 1. Lieferung: Ophidier. Isis von Oken, Jena, vol. 20, p. 508-566 (texte intégral).
 Taylor, 1962 : New oriental reptiles. University of Kansas science bulletin, vol. 43, no 7, p. 209-263 (texte intégral).</t>
